--- a/TC_CreateNewPurchaseOrder/Main.rvl.xlsx
+++ b/TC_CreateNewPurchaseOrder/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="304">
   <si>
     <t>Flow</t>
   </si>
@@ -901,6 +901,33 @@
   </si>
   <si>
     <t>Quantity Received</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>vChangeCompany</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>MaximizeWindow</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Vendor Invoice No</t>
+  </si>
+  <si>
+    <t>parseInt(LastResult)</t>
   </si>
 </sst>
 </file>
@@ -921,7 +948,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1454">
+  <borders count="1484">
     <border>
       <left/>
       <right/>
@@ -2382,11 +2409,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1454">
+  <cellXfs count="1484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -3841,6 +3898,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1451" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1452" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1453" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1454" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1455" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1456" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1457" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1458" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1459" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1460" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1461" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1462" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1463" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1464" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1465" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1466" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1467" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1468" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1469" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1470" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1471" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1472" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1473" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1474" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1475" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1476" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1477" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1478" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1479" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1480" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1481" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1482" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1483" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3850,7 +3937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3923,7 +4010,7 @@
         <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
         <v>287</v>
@@ -4032,325 +4119,350 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="504"/>
+      <c r="A13" s="501" t="s">
+        <v>77</v>
+      </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="502"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="505"/>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="506"/>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="507"/>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="501" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="502"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="38" t="s">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1311" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1315" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
+      <c r="A24" s="1407"/>
     </row>
     <row r="25">
-      <c r="A25" s="1316" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="1408"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1317" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="1411"/>
       <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1410"/>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1477"/>
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="G26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1318" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="G28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1478"/>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1407"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1408"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>181</v>
-      </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1411"/>
+      <c r="A30" s="1319" t="s">
+        <v>7</v>
+      </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1410"/>
+      <c r="A31" s="1320" t="s">
+        <v>7</v>
+      </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>117</v>
@@ -4360,97 +4472,87 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1319" t="s">
-        <v>7</v>
-      </c>
+      <c r="A32" s="1415"/>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1320" t="s">
-        <v>7</v>
-      </c>
+      <c r="A33" s="1417"/>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1415"/>
+      <c r="A34" s="1418"/>
       <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
         <v>285</v>
       </c>
-      <c r="F34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1417"/>
+      <c r="A35" s="1481"/>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1418"/>
+      <c r="A36" s="1480"/>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
         <v>117</v>
@@ -4460,148 +4562,128 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1312"/>
+      <c r="A37" s="1479"/>
     </row>
     <row r="38">
-      <c r="A38" s="1128"/>
-      <c r="B38" t="s">
+      <c r="A38" s="1312"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1128"/>
+      <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>282</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>115</v>
       </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1129"/>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1129"/>
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>117</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1406"/>
-      <c r="B40" t="s">
+    <row r="41">
+      <c r="A41" s="1406"/>
+      <c r="B41" t="s">
         <v>110</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>260</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>211</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1130"/>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" s="1131"/>
+      <c r="A42" s="1130"/>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1132"/>
+      <c r="A43" s="1131"/>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="153"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="160"/>
+      <c r="A44" s="1132"/>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="537" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>277</v>
-      </c>
+      <c r="A45" s="153"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="160"/>
     </row>
     <row r="46">
-      <c r="A46" s="538" t="s">
+      <c r="A46" s="537" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
@@ -4620,30 +4702,62 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="538" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="544" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="48">
-      <c r="A48" s="545" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="544" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="545" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="546"/>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="546"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4651,7 +4765,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -4832,373 +4946,403 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1263"/>
+      <c r="A11" s="1260" t="s">
+        <v>77</v>
+      </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1264"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A12" s="1261"/>
     </row>
     <row r="13">
-      <c r="A13" s="1265"/>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
+      <c r="A13" s="1239"/>
     </row>
     <row r="14">
-      <c r="A14" s="1266"/>
+      <c r="A14" s="843"/>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1260" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="844"/>
     </row>
     <row r="16">
-      <c r="A16" s="1261"/>
+      <c r="A16" s="1271" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1239"/>
+      <c r="A17" s="1272" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="843"/>
+      <c r="A18" s="845"/>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>300</v>
       </c>
       <c r="E18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="846"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1361"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
         <v>159</v>
       </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="844"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1271" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1272" t="s">
-        <v>61</v>
-      </c>
+      <c r="A21" s="1362"/>
       <c r="B21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="845"/>
+      <c r="A22" s="1363"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1364"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1365"/>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1366"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="846"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1361"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>117</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1362"/>
-      <c r="B25" t="s">
+    <row r="26">
+      <c r="A26" s="1367"/>
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1363"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
+      <c r="G26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1364"/>
+      <c r="A27" s="1368"/>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1360"/>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1351"/>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="G27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1365"/>
-      <c r="B28" t="s">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1352"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1353"/>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1366"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1367"/>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1368"/>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
+      <c r="G31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1360"/>
+      <c r="A32" s="1354"/>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1351"/>
+      <c r="A33" s="1421" t="s">
+        <v>100</v>
+      </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>301</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1352"/>
+      <c r="A34" s="1434" t="s">
+        <v>7</v>
+      </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1353"/>
+      <c r="A35" s="1435" t="s">
+        <v>7</v>
+      </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
@@ -5209,88 +5353,80 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1354"/>
+      <c r="A36" s="1436" t="s">
+        <v>61</v>
+      </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1421" t="s">
-        <v>100</v>
-      </c>
+      <c r="A37" s="1442"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1434" t="s">
-        <v>7</v>
-      </c>
+      <c r="A38" s="1443"/>
       <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1435" t="s">
-        <v>7</v>
+      <c r="A39" s="1438" t="s">
+        <v>290</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -5299,21 +5435,21 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1436" t="s">
+      <c r="A40" s="1439" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -5332,7 +5468,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1442"/>
+      <c r="A41" s="1447"/>
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -5353,7 +5489,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1443"/>
+      <c r="A42" s="1448"/>
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -5364,15 +5500,15 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1438" t="s">
-        <v>290</v>
+      <c r="A43" s="1441" t="s">
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -5391,30 +5527,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1439" t="s">
-        <v>61</v>
-      </c>
+      <c r="A44" s="1357"/>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1447"/>
+      <c r="A45" s="1358"/>
       <c r="B45" t="s">
         <v>3</v>
       </c>
@@ -5435,7 +5569,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1448"/>
+      <c r="A46" s="1359"/>
       <c r="B46" t="s">
         <v>18</v>
       </c>
@@ -5446,557 +5580,477 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1441" t="s">
+      <c r="A47" s="1347"/>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1275"/>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1270" t="s">
         <v>77</v>
       </c>
-      <c r="B47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1357"/>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1358"/>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1359"/>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>294</v>
-      </c>
+      <c r="A50" s="191"/>
+      <c r="B50" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="195" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="196" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="197" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="198"/>
     </row>
     <row r="51">
-      <c r="A51" s="1347"/>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" t="s">
-        <v>7</v>
-      </c>
+      <c r="A51" s="199"/>
+      <c r="B51" s="200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="204" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="205" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="206"/>
     </row>
     <row r="52">
-      <c r="A52" s="1275"/>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" t="s">
-        <v>142</v>
-      </c>
+      <c r="A52" s="207"/>
+      <c r="B52" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="211" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="212" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="213" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="214"/>
     </row>
     <row r="53">
-      <c r="A53" s="1270" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" t="s">
-        <v>7</v>
-      </c>
+      <c r="A53" s="215"/>
+      <c r="B53" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="217"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="220" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="221" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="222"/>
     </row>
     <row r="54">
-      <c r="A54" s="191"/>
-      <c r="B54" s="192" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="193" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="196" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="197" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="198"/>
+      <c r="A54" s="223"/>
+      <c r="B54" s="224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="228" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="229" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="230"/>
     </row>
     <row r="55">
-      <c r="A55" s="199"/>
-      <c r="B55" s="200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="201"/>
-      <c r="D55" s="202"/>
-      <c r="E55" s="203" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="204" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="206"/>
+      <c r="A55" s="231"/>
+      <c r="B55" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="233" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="235" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="237" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="238"/>
     </row>
     <row r="56">
-      <c r="A56" s="207"/>
-      <c r="B56" s="208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="209" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="210" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="211" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="212" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="213" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="214"/>
+      <c r="A56" s="239"/>
+      <c r="B56" s="240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="241"/>
+      <c r="D56" s="242"/>
+      <c r="E56" s="243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="244" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="245" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="246"/>
     </row>
     <row r="57">
-      <c r="A57" s="215"/>
-      <c r="B57" s="216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="217"/>
-      <c r="D57" s="218"/>
-      <c r="E57" s="219" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="220" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="221" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="222"/>
+      <c r="A57" s="247"/>
+      <c r="B57" s="248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="249" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="252" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="253" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="254"/>
     </row>
     <row r="58">
-      <c r="A58" s="223"/>
-      <c r="B58" s="224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="225" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="226" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="227" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="228" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="229" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="230"/>
+      <c r="A58" s="255"/>
+      <c r="B58" s="256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="257" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="260" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="261" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="262"/>
     </row>
     <row r="59">
-      <c r="A59" s="231"/>
-      <c r="B59" s="232" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="233" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="234" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="235" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="236" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="237" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="238"/>
+      <c r="A59" s="263"/>
+      <c r="B59" s="264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="265"/>
+      <c r="D59" s="266"/>
+      <c r="E59" s="267" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="268" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="269" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="270"/>
     </row>
     <row r="60">
-      <c r="A60" s="239"/>
-      <c r="B60" s="240" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="241"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="243" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="244" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="245" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="246"/>
+      <c r="A60" s="271"/>
+      <c r="B60" s="272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="273" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="274" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="275"/>
+      <c r="F60" s="276"/>
+      <c r="G60" s="277"/>
+      <c r="H60" s="278"/>
     </row>
     <row r="61">
-      <c r="A61" s="247"/>
-      <c r="B61" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="249" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="250" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="251" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="252" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="253" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="254"/>
+      <c r="A61" s="279"/>
+      <c r="B61" s="280"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="282"/>
+      <c r="E61" s="283"/>
+      <c r="F61" s="284"/>
+      <c r="G61" s="285"/>
+      <c r="H61" s="286"/>
     </row>
     <row r="62">
-      <c r="A62" s="255"/>
-      <c r="B62" s="256" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="257" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="258" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="259" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="260" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="261" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="262"/>
+      <c r="A62" s="287"/>
+      <c r="B62" s="288"/>
+      <c r="C62" s="289"/>
+      <c r="D62" s="290"/>
+      <c r="E62" s="291"/>
+      <c r="F62" s="292"/>
+      <c r="G62" s="293"/>
+      <c r="H62" s="294"/>
     </row>
     <row r="63">
-      <c r="A63" s="263"/>
-      <c r="B63" s="264" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="265"/>
-      <c r="D63" s="266"/>
-      <c r="E63" s="267" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="268" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="269" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="270"/>
+      <c r="A63" s="295"/>
+      <c r="B63" s="296"/>
+      <c r="C63" s="297"/>
+      <c r="D63" s="298"/>
+      <c r="E63" s="299"/>
+      <c r="F63" s="300"/>
+      <c r="G63" s="301"/>
+      <c r="H63" s="302"/>
     </row>
     <row r="64">
-      <c r="A64" s="271"/>
-      <c r="B64" s="272" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="273" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="274" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="275"/>
-      <c r="F64" s="276"/>
-      <c r="G64" s="277"/>
-      <c r="H64" s="278"/>
+      <c r="A64" s="303"/>
+      <c r="B64" s="304"/>
+      <c r="C64" s="305"/>
+      <c r="D64" s="306"/>
+      <c r="E64" s="307"/>
+      <c r="F64" s="308"/>
+      <c r="G64" s="309"/>
+      <c r="H64" s="310"/>
     </row>
     <row r="65">
-      <c r="A65" s="279"/>
-      <c r="B65" s="280"/>
-      <c r="C65" s="281"/>
-      <c r="D65" s="282"/>
-      <c r="E65" s="283"/>
-      <c r="F65" s="284"/>
-      <c r="G65" s="285"/>
-      <c r="H65" s="286"/>
+      <c r="A65" s="311"/>
+      <c r="B65" s="312"/>
+      <c r="C65" s="313"/>
+      <c r="D65" s="314"/>
+      <c r="E65" s="315"/>
+      <c r="F65" s="316"/>
+      <c r="G65" s="317"/>
+      <c r="H65" s="318"/>
     </row>
     <row r="66">
-      <c r="A66" s="287"/>
-      <c r="B66" s="288"/>
-      <c r="C66" s="289"/>
-      <c r="D66" s="290"/>
-      <c r="E66" s="291"/>
-      <c r="F66" s="292"/>
-      <c r="G66" s="293"/>
-      <c r="H66" s="294"/>
+      <c r="A66" s="319"/>
+      <c r="B66" s="320"/>
+      <c r="C66" s="321"/>
+      <c r="D66" s="322"/>
+      <c r="E66" s="323"/>
+      <c r="F66" s="324"/>
+      <c r="G66" s="325"/>
+      <c r="H66" s="326"/>
     </row>
     <row r="67">
-      <c r="A67" s="295"/>
-      <c r="B67" s="296"/>
-      <c r="C67" s="297"/>
-      <c r="D67" s="298"/>
-      <c r="E67" s="299"/>
-      <c r="F67" s="300"/>
-      <c r="G67" s="301"/>
-      <c r="H67" s="302"/>
+      <c r="A67" s="327"/>
+      <c r="B67" s="328"/>
+      <c r="C67" s="329"/>
+      <c r="D67" s="330"/>
+      <c r="E67" s="331"/>
+      <c r="F67" s="332"/>
+      <c r="G67" s="333"/>
+      <c r="H67" s="334"/>
     </row>
     <row r="68">
-      <c r="A68" s="303"/>
-      <c r="B68" s="304"/>
-      <c r="C68" s="305"/>
-      <c r="D68" s="306"/>
-      <c r="E68" s="307"/>
-      <c r="F68" s="308"/>
-      <c r="G68" s="309"/>
-      <c r="H68" s="310"/>
+      <c r="A68" s="335"/>
+      <c r="B68" s="336"/>
+      <c r="C68" s="337"/>
+      <c r="D68" s="338"/>
+      <c r="E68" s="339"/>
+      <c r="F68" s="340"/>
+      <c r="G68" s="341"/>
+      <c r="H68" s="342"/>
     </row>
     <row r="69">
-      <c r="A69" s="311"/>
-      <c r="B69" s="312"/>
-      <c r="C69" s="313"/>
-      <c r="D69" s="314"/>
-      <c r="E69" s="315"/>
-      <c r="F69" s="316"/>
-      <c r="G69" s="317"/>
-      <c r="H69" s="318"/>
+      <c r="A69" s="343"/>
+      <c r="B69" s="344"/>
+      <c r="C69" s="345"/>
+      <c r="D69" s="346"/>
+      <c r="E69" s="347"/>
+      <c r="F69" s="348"/>
+      <c r="G69" s="349"/>
+      <c r="H69" s="350"/>
     </row>
     <row r="70">
-      <c r="A70" s="319"/>
-      <c r="B70" s="320"/>
-      <c r="C70" s="321"/>
-      <c r="D70" s="322"/>
-      <c r="E70" s="323"/>
-      <c r="F70" s="324"/>
-      <c r="G70" s="325"/>
-      <c r="H70" s="326"/>
+      <c r="A70" s="351"/>
+      <c r="B70" s="352"/>
+      <c r="C70" s="353"/>
+      <c r="D70" s="354"/>
+      <c r="E70" s="355"/>
+      <c r="F70" s="356"/>
+      <c r="G70" s="357"/>
+      <c r="H70" s="358"/>
     </row>
     <row r="71">
-      <c r="A71" s="327"/>
-      <c r="B71" s="328"/>
-      <c r="C71" s="329"/>
-      <c r="D71" s="330"/>
-      <c r="E71" s="331"/>
-      <c r="F71" s="332"/>
-      <c r="G71" s="333"/>
-      <c r="H71" s="334"/>
+      <c r="A71" s="359"/>
+      <c r="B71" s="360"/>
+      <c r="C71" s="361"/>
+      <c r="D71" s="362"/>
+      <c r="E71" s="363"/>
+      <c r="F71" s="364"/>
+      <c r="G71" s="365"/>
+      <c r="H71" s="366"/>
     </row>
     <row r="72">
-      <c r="A72" s="335"/>
-      <c r="B72" s="336"/>
-      <c r="C72" s="337"/>
-      <c r="D72" s="338"/>
-      <c r="E72" s="339"/>
-      <c r="F72" s="340"/>
-      <c r="G72" s="341"/>
-      <c r="H72" s="342"/>
+      <c r="A72" s="367"/>
+      <c r="B72" s="368"/>
+      <c r="C72" s="369"/>
+      <c r="D72" s="370"/>
+      <c r="E72" s="371"/>
+      <c r="F72" s="372"/>
+      <c r="G72" s="373"/>
+      <c r="H72" s="374"/>
     </row>
     <row r="73">
-      <c r="A73" s="343"/>
-      <c r="B73" s="344"/>
-      <c r="C73" s="345"/>
-      <c r="D73" s="346"/>
-      <c r="E73" s="347"/>
-      <c r="F73" s="348"/>
-      <c r="G73" s="349"/>
-      <c r="H73" s="350"/>
+      <c r="A73" s="375"/>
+      <c r="B73" s="376"/>
+      <c r="C73" s="377"/>
+      <c r="D73" s="378"/>
+      <c r="E73" s="379"/>
+      <c r="F73" s="380"/>
+      <c r="G73" s="381"/>
+      <c r="H73" s="382"/>
     </row>
     <row r="74">
-      <c r="A74" s="351"/>
-      <c r="B74" s="352"/>
-      <c r="C74" s="353"/>
-      <c r="D74" s="354"/>
-      <c r="E74" s="355"/>
-      <c r="F74" s="356"/>
-      <c r="G74" s="357"/>
-      <c r="H74" s="358"/>
+      <c r="A74" s="383"/>
+      <c r="B74" s="384"/>
+      <c r="C74" s="385"/>
+      <c r="D74" s="386"/>
+      <c r="E74" s="387"/>
+      <c r="F74" s="388"/>
+      <c r="G74" s="389"/>
+      <c r="H74" s="390"/>
     </row>
     <row r="75">
-      <c r="A75" s="359"/>
-      <c r="B75" s="360"/>
-      <c r="C75" s="361"/>
-      <c r="D75" s="362"/>
-      <c r="E75" s="363"/>
-      <c r="F75" s="364"/>
-      <c r="G75" s="365"/>
-      <c r="H75" s="366"/>
+      <c r="A75" s="391"/>
+      <c r="B75" s="392"/>
+      <c r="C75" s="393"/>
+      <c r="D75" s="394"/>
+      <c r="E75" s="395"/>
+      <c r="F75" s="396"/>
+      <c r="G75" s="397"/>
+      <c r="H75" s="398"/>
     </row>
     <row r="76">
-      <c r="A76" s="367"/>
-      <c r="B76" s="368"/>
-      <c r="C76" s="369"/>
-      <c r="D76" s="370"/>
-      <c r="E76" s="371"/>
-      <c r="F76" s="372"/>
-      <c r="G76" s="373"/>
-      <c r="H76" s="374"/>
+      <c r="A76" s="399"/>
+      <c r="B76" s="400"/>
+      <c r="C76" s="401"/>
+      <c r="D76" s="402"/>
+      <c r="E76" s="403"/>
+      <c r="F76" s="404"/>
+      <c r="G76" s="405"/>
+      <c r="H76" s="406"/>
     </row>
     <row r="77">
-      <c r="A77" s="375"/>
-      <c r="B77" s="376"/>
-      <c r="C77" s="377"/>
-      <c r="D77" s="378"/>
-      <c r="E77" s="379"/>
-      <c r="F77" s="380"/>
-      <c r="G77" s="381"/>
-      <c r="H77" s="382"/>
+      <c r="A77" s="407"/>
+      <c r="B77" s="408"/>
+      <c r="C77" s="409"/>
+      <c r="D77" s="410"/>
+      <c r="E77" s="411"/>
+      <c r="F77" s="412"/>
+      <c r="G77" s="413"/>
+      <c r="H77" s="414"/>
     </row>
     <row r="78">
-      <c r="A78" s="383"/>
-      <c r="B78" s="384"/>
-      <c r="C78" s="385"/>
-      <c r="D78" s="386"/>
-      <c r="E78" s="387"/>
-      <c r="F78" s="388"/>
-      <c r="G78" s="389"/>
-      <c r="H78" s="390"/>
+      <c r="A78" s="415"/>
+      <c r="B78" s="416"/>
+      <c r="C78" s="417"/>
+      <c r="D78" s="418"/>
+      <c r="E78" s="419"/>
+      <c r="F78" s="420"/>
+      <c r="G78" s="421"/>
+      <c r="H78" s="422"/>
     </row>
     <row r="79">
-      <c r="A79" s="391"/>
-      <c r="B79" s="392"/>
-      <c r="C79" s="393"/>
-      <c r="D79" s="394"/>
-      <c r="E79" s="395"/>
-      <c r="F79" s="396"/>
-      <c r="G79" s="397"/>
-      <c r="H79" s="398"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="399"/>
-      <c r="B80" s="400"/>
-      <c r="C80" s="401"/>
-      <c r="D80" s="402"/>
-      <c r="E80" s="403"/>
-      <c r="F80" s="404"/>
-      <c r="G80" s="405"/>
-      <c r="H80" s="406"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="407"/>
-      <c r="B81" s="408"/>
-      <c r="C81" s="409"/>
-      <c r="D81" s="410"/>
-      <c r="E81" s="411"/>
-      <c r="F81" s="412"/>
-      <c r="G81" s="413"/>
-      <c r="H81" s="414"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="415"/>
-      <c r="B82" s="416"/>
-      <c r="C82" s="417"/>
-      <c r="D82" s="418"/>
-      <c r="E82" s="419"/>
-      <c r="F82" s="420"/>
-      <c r="G82" s="421"/>
-      <c r="H82" s="422"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="423"/>
-      <c r="B83" s="424"/>
-      <c r="C83" s="425"/>
-      <c r="D83" s="426"/>
-      <c r="E83" s="427"/>
-      <c r="F83" s="428"/>
-      <c r="G83" s="429"/>
-      <c r="H83" s="430"/>
+      <c r="A79" s="423"/>
+      <c r="B79" s="424"/>
+      <c r="C79" s="425"/>
+      <c r="D79" s="426"/>
+      <c r="E79" s="427"/>
+      <c r="F79" s="428"/>
+      <c r="G79" s="429"/>
+      <c r="H79" s="430"/>
     </row>
   </sheetData>
 </worksheet>
@@ -6004,7 +6058,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -6210,446 +6264,342 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1387" t="s">
-        <v>7</v>
+      <c r="A9" s="1391" t="s">
+        <v>77</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1304"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1278" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1280"/>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1388" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1389" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1390" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1391" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1304"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1278" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>251</v>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1280"/>
-      <c r="B16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>255</v>
-      </c>
+      <c r="A16" s="1281"/>
     </row>
     <row r="17">
-      <c r="A17" s="1287" t="s">
-        <v>7</v>
-      </c>
+      <c r="A17" s="1282"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1285" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="652"/>
+      <c r="B18" s="653" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="654" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="655" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="656"/>
+      <c r="F18" s="657"/>
+      <c r="G18" s="658"/>
+      <c r="H18" s="659"/>
     </row>
     <row r="19">
-      <c r="A19" s="1286" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>257</v>
-      </c>
+      <c r="A19" s="660"/>
+      <c r="B19" s="661" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="662" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="663" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="664"/>
+      <c r="F19" s="665"/>
+      <c r="G19" s="666"/>
+      <c r="H19" s="667"/>
     </row>
     <row r="20">
-      <c r="A20" s="1281"/>
+      <c r="A20" s="668"/>
+      <c r="B20" s="669"/>
+      <c r="C20" s="670"/>
+      <c r="D20" s="671"/>
+      <c r="E20" s="672"/>
+      <c r="F20" s="673"/>
+      <c r="G20" s="674"/>
+      <c r="H20" s="675"/>
     </row>
     <row r="21">
-      <c r="A21" s="1282"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
+      <c r="A21" s="676"/>
+      <c r="B21" s="677"/>
+      <c r="C21" s="678"/>
+      <c r="D21" s="679"/>
+      <c r="E21" s="680"/>
+      <c r="F21" s="681"/>
+      <c r="G21" s="682"/>
+      <c r="H21" s="683"/>
     </row>
     <row r="22">
-      <c r="A22" s="652"/>
-      <c r="B22" s="653" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="654" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="655" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="656"/>
-      <c r="F22" s="657"/>
-      <c r="G22" s="658"/>
-      <c r="H22" s="659"/>
+      <c r="A22" s="684"/>
+      <c r="B22" s="685"/>
+      <c r="C22" s="686"/>
+      <c r="D22" s="687"/>
+      <c r="E22" s="688"/>
+      <c r="F22" s="689"/>
+      <c r="G22" s="690"/>
+      <c r="H22" s="691"/>
     </row>
     <row r="23">
-      <c r="A23" s="660"/>
-      <c r="B23" s="661" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="662" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="663" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="664"/>
-      <c r="F23" s="665"/>
-      <c r="G23" s="666"/>
-      <c r="H23" s="667"/>
+      <c r="A23" s="692"/>
+      <c r="B23" s="693"/>
+      <c r="C23" s="694"/>
+      <c r="D23" s="695"/>
+      <c r="E23" s="696"/>
+      <c r="F23" s="697"/>
+      <c r="G23" s="698"/>
+      <c r="H23" s="699"/>
     </row>
     <row r="24">
-      <c r="A24" s="668"/>
-      <c r="B24" s="669"/>
-      <c r="C24" s="670"/>
-      <c r="D24" s="671"/>
-      <c r="E24" s="672"/>
-      <c r="F24" s="673"/>
-      <c r="G24" s="674"/>
-      <c r="H24" s="675"/>
+      <c r="A24" s="700"/>
+      <c r="B24" s="701"/>
+      <c r="C24" s="702"/>
+      <c r="D24" s="703"/>
+      <c r="E24" s="704"/>
+      <c r="F24" s="705"/>
+      <c r="G24" s="706"/>
+      <c r="H24" s="707"/>
     </row>
     <row r="25">
-      <c r="A25" s="676"/>
-      <c r="B25" s="677"/>
-      <c r="C25" s="678"/>
-      <c r="D25" s="679"/>
-      <c r="E25" s="680"/>
-      <c r="F25" s="681"/>
-      <c r="G25" s="682"/>
-      <c r="H25" s="683"/>
+      <c r="A25" s="708"/>
+      <c r="B25" s="709"/>
+      <c r="C25" s="710"/>
+      <c r="D25" s="711"/>
+      <c r="E25" s="712"/>
+      <c r="F25" s="713"/>
+      <c r="G25" s="714"/>
+      <c r="H25" s="715"/>
     </row>
     <row r="26">
-      <c r="A26" s="684"/>
-      <c r="B26" s="685"/>
-      <c r="C26" s="686"/>
-      <c r="D26" s="687"/>
-      <c r="E26" s="688"/>
-      <c r="F26" s="689"/>
-      <c r="G26" s="690"/>
-      <c r="H26" s="691"/>
+      <c r="A26" s="716"/>
+      <c r="B26" s="717"/>
+      <c r="C26" s="718"/>
+      <c r="D26" s="719"/>
+      <c r="E26" s="720"/>
+      <c r="F26" s="721"/>
+      <c r="G26" s="722"/>
+      <c r="H26" s="723"/>
     </row>
     <row r="27">
-      <c r="A27" s="692"/>
-      <c r="B27" s="693"/>
-      <c r="C27" s="694"/>
-      <c r="D27" s="695"/>
-      <c r="E27" s="696"/>
-      <c r="F27" s="697"/>
-      <c r="G27" s="698"/>
-      <c r="H27" s="699"/>
+      <c r="A27" s="724"/>
+      <c r="B27" s="725"/>
+      <c r="C27" s="726"/>
+      <c r="D27" s="727"/>
+      <c r="E27" s="728"/>
+      <c r="F27" s="729"/>
+      <c r="G27" s="730"/>
+      <c r="H27" s="731"/>
     </row>
     <row r="28">
-      <c r="A28" s="700"/>
-      <c r="B28" s="701"/>
-      <c r="C28" s="702"/>
-      <c r="D28" s="703"/>
-      <c r="E28" s="704"/>
-      <c r="F28" s="705"/>
-      <c r="G28" s="706"/>
-      <c r="H28" s="707"/>
+      <c r="A28" s="732"/>
+      <c r="B28" s="733"/>
+      <c r="C28" s="734"/>
+      <c r="D28" s="735"/>
+      <c r="E28" s="736"/>
+      <c r="F28" s="737"/>
+      <c r="G28" s="738"/>
+      <c r="H28" s="739"/>
     </row>
     <row r="29">
-      <c r="A29" s="708"/>
-      <c r="B29" s="709"/>
-      <c r="C29" s="710"/>
-      <c r="D29" s="711"/>
-      <c r="E29" s="712"/>
-      <c r="F29" s="713"/>
-      <c r="G29" s="714"/>
-      <c r="H29" s="715"/>
+      <c r="A29" s="740"/>
+      <c r="B29" s="741"/>
+      <c r="C29" s="742"/>
+      <c r="D29" s="743"/>
+      <c r="E29" s="744"/>
+      <c r="F29" s="745"/>
+      <c r="G29" s="746"/>
+      <c r="H29" s="747"/>
     </row>
     <row r="30">
-      <c r="A30" s="716"/>
-      <c r="B30" s="717"/>
-      <c r="C30" s="718"/>
-      <c r="D30" s="719"/>
-      <c r="E30" s="720"/>
-      <c r="F30" s="721"/>
-      <c r="G30" s="722"/>
-      <c r="H30" s="723"/>
+      <c r="A30" s="748"/>
+      <c r="B30" s="749"/>
+      <c r="C30" s="750"/>
+      <c r="D30" s="751"/>
+      <c r="E30" s="752"/>
+      <c r="F30" s="753"/>
+      <c r="G30" s="754"/>
+      <c r="H30" s="755"/>
     </row>
     <row r="31">
-      <c r="A31" s="724"/>
-      <c r="B31" s="725"/>
-      <c r="C31" s="726"/>
-      <c r="D31" s="727"/>
-      <c r="E31" s="728"/>
-      <c r="F31" s="729"/>
-      <c r="G31" s="730"/>
-      <c r="H31" s="731"/>
+      <c r="A31" s="756"/>
+      <c r="B31" s="757"/>
+      <c r="C31" s="758"/>
+      <c r="D31" s="759"/>
+      <c r="E31" s="760"/>
+      <c r="F31" s="761"/>
+      <c r="G31" s="762"/>
+      <c r="H31" s="763"/>
     </row>
     <row r="32">
-      <c r="A32" s="732"/>
-      <c r="B32" s="733"/>
-      <c r="C32" s="734"/>
-      <c r="D32" s="735"/>
-      <c r="E32" s="736"/>
-      <c r="F32" s="737"/>
-      <c r="G32" s="738"/>
-      <c r="H32" s="739"/>
+      <c r="A32" s="764"/>
+      <c r="B32" s="765"/>
+      <c r="C32" s="766"/>
+      <c r="D32" s="767"/>
+      <c r="E32" s="768"/>
+      <c r="F32" s="769"/>
+      <c r="G32" s="770"/>
+      <c r="H32" s="771"/>
     </row>
     <row r="33">
-      <c r="A33" s="740"/>
-      <c r="B33" s="741"/>
-      <c r="C33" s="742"/>
-      <c r="D33" s="743"/>
-      <c r="E33" s="744"/>
-      <c r="F33" s="745"/>
-      <c r="G33" s="746"/>
-      <c r="H33" s="747"/>
+      <c r="A33" s="772"/>
+      <c r="B33" s="773"/>
+      <c r="C33" s="774"/>
+      <c r="D33" s="775"/>
+      <c r="E33" s="776"/>
+      <c r="F33" s="777"/>
+      <c r="G33" s="778"/>
+      <c r="H33" s="779"/>
     </row>
     <row r="34">
-      <c r="A34" s="748"/>
-      <c r="B34" s="749"/>
-      <c r="C34" s="750"/>
-      <c r="D34" s="751"/>
-      <c r="E34" s="752"/>
-      <c r="F34" s="753"/>
-      <c r="G34" s="754"/>
-      <c r="H34" s="755"/>
+      <c r="A34" s="780"/>
+      <c r="B34" s="781"/>
+      <c r="C34" s="782"/>
+      <c r="D34" s="783"/>
+      <c r="E34" s="784"/>
+      <c r="F34" s="785"/>
+      <c r="G34" s="786"/>
+      <c r="H34" s="787"/>
     </row>
     <row r="35">
-      <c r="A35" s="756"/>
-      <c r="B35" s="757"/>
-      <c r="C35" s="758"/>
-      <c r="D35" s="759"/>
-      <c r="E35" s="760"/>
-      <c r="F35" s="761"/>
-      <c r="G35" s="762"/>
-      <c r="H35" s="763"/>
+      <c r="A35" s="788"/>
+      <c r="B35" s="789"/>
+      <c r="C35" s="790"/>
+      <c r="D35" s="791"/>
+      <c r="E35" s="792"/>
+      <c r="F35" s="793"/>
+      <c r="G35" s="794"/>
+      <c r="H35" s="795"/>
     </row>
     <row r="36">
-      <c r="A36" s="764"/>
-      <c r="B36" s="765"/>
-      <c r="C36" s="766"/>
-      <c r="D36" s="767"/>
-      <c r="E36" s="768"/>
-      <c r="F36" s="769"/>
-      <c r="G36" s="770"/>
-      <c r="H36" s="771"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="772"/>
-      <c r="B37" s="773"/>
-      <c r="C37" s="774"/>
-      <c r="D37" s="775"/>
-      <c r="E37" s="776"/>
-      <c r="F37" s="777"/>
-      <c r="G37" s="778"/>
-      <c r="H37" s="779"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="780"/>
-      <c r="B38" s="781"/>
-      <c r="C38" s="782"/>
-      <c r="D38" s="783"/>
-      <c r="E38" s="784"/>
-      <c r="F38" s="785"/>
-      <c r="G38" s="786"/>
-      <c r="H38" s="787"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="788"/>
-      <c r="B39" s="789"/>
-      <c r="C39" s="790"/>
-      <c r="D39" s="791"/>
-      <c r="E39" s="792"/>
-      <c r="F39" s="793"/>
-      <c r="G39" s="794"/>
-      <c r="H39" s="795"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="796"/>
-      <c r="B40" s="797"/>
-      <c r="C40" s="798"/>
-      <c r="D40" s="799"/>
-      <c r="E40" s="800"/>
-      <c r="F40" s="801"/>
-      <c r="G40" s="802"/>
-      <c r="H40" s="803"/>
+      <c r="A36" s="796"/>
+      <c r="B36" s="797"/>
+      <c r="C36" s="798"/>
+      <c r="D36" s="799"/>
+      <c r="E36" s="800"/>
+      <c r="F36" s="801"/>
+      <c r="G36" s="802"/>
+      <c r="H36" s="803"/>
     </row>
   </sheetData>
 </worksheet>
